--- a/Codigo/NUEVODATASET/P1.xlsx
+++ b/Codigo/NUEVODATASET/P1.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Universitat\3r curs\2n semestre\Robotica\Proyecto github\Robotica\Codigo\NUEVODATASET\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0367921-CA92-468F-BC5E-5FD2A50C8451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -151,8 +157,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,11 +221,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -261,7 +275,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -293,9 +307,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -327,6 +359,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -502,14 +552,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="Y25" workbookViewId="0">
+      <selection activeCell="AT48" sqref="AT48"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:45">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -643,7 +695,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:45">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -777,10 +829,10 @@
         <v>358</v>
       </c>
       <c r="AS2">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:45">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -914,10 +966,10 @@
         <v>370</v>
       </c>
       <c r="AS3">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:45">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1051,10 +1103,10 @@
         <v>367</v>
       </c>
       <c r="AS4">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:45">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1188,10 +1240,10 @@
         <v>357</v>
       </c>
       <c r="AS5">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:45">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1325,10 +1377,10 @@
         <v>352</v>
       </c>
       <c r="AS6">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:45">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1462,10 +1514,10 @@
         <v>355</v>
       </c>
       <c r="AS7">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:45">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1599,10 +1651,10 @@
         <v>331</v>
       </c>
       <c r="AS8">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:45">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1736,10 +1788,10 @@
         <v>339</v>
       </c>
       <c r="AS9">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:45">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1873,10 +1925,10 @@
         <v>356</v>
       </c>
       <c r="AS10">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:45">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2010,10 +2062,10 @@
         <v>363</v>
       </c>
       <c r="AS11">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:45">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2147,10 +2199,10 @@
         <v>187</v>
       </c>
       <c r="AS12">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:45">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2284,10 +2336,10 @@
         <v>201</v>
       </c>
       <c r="AS13">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:45">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2421,10 +2473,10 @@
         <v>186</v>
       </c>
       <c r="AS14">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:45">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2558,10 +2610,10 @@
         <v>158</v>
       </c>
       <c r="AS15">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:45">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2695,10 +2747,10 @@
         <v>192</v>
       </c>
       <c r="AS16">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:45">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2832,10 +2884,10 @@
         <v>183</v>
       </c>
       <c r="AS17">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:45">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2969,10 +3021,10 @@
         <v>207</v>
       </c>
       <c r="AS18">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:45">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3106,10 +3158,10 @@
         <v>198</v>
       </c>
       <c r="AS19">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:45">
+    <row r="20" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3243,10 +3295,10 @@
         <v>195</v>
       </c>
       <c r="AS20">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:45">
+    <row r="21" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3380,10 +3432,10 @@
         <v>119</v>
       </c>
       <c r="AS21">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:45">
+    <row r="22" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3517,10 +3569,10 @@
         <v>303</v>
       </c>
       <c r="AS22">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:45">
+    <row r="23" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3654,10 +3706,10 @@
         <v>333</v>
       </c>
       <c r="AS23">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:45">
+    <row r="24" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3791,10 +3843,10 @@
         <v>339</v>
       </c>
       <c r="AS24">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:45">
+    <row r="25" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3928,10 +3980,10 @@
         <v>339</v>
       </c>
       <c r="AS25">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:45">
+    <row r="26" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -4065,10 +4117,10 @@
         <v>341</v>
       </c>
       <c r="AS26">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:45">
+    <row r="27" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -4202,10 +4254,10 @@
         <v>337</v>
       </c>
       <c r="AS27">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:45">
+    <row r="28" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -4339,10 +4391,10 @@
         <v>334</v>
       </c>
       <c r="AS28">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:45">
+    <row r="29" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -4476,10 +4528,10 @@
         <v>335</v>
       </c>
       <c r="AS29">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:45">
+    <row r="30" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -4613,10 +4665,10 @@
         <v>333</v>
       </c>
       <c r="AS30">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:45">
+    <row r="31" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -4750,10 +4802,10 @@
         <v>335</v>
       </c>
       <c r="AS31">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:45">
+    <row r="32" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -4887,10 +4939,10 @@
         <v>334</v>
       </c>
       <c r="AS32">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:45">
+    <row r="33" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -5024,10 +5076,10 @@
         <v>312</v>
       </c>
       <c r="AS33">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:45">
+    <row r="34" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -5161,10 +5213,10 @@
         <v>315</v>
       </c>
       <c r="AS34">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:45">
+    <row r="35" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -5298,10 +5350,10 @@
         <v>317</v>
       </c>
       <c r="AS35">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:45">
+    <row r="36" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -5435,10 +5487,10 @@
         <v>317</v>
       </c>
       <c r="AS36">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:45">
+    <row r="37" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -5572,10 +5624,10 @@
         <v>327</v>
       </c>
       <c r="AS37">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:45">
+    <row r="38" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -5709,10 +5761,10 @@
         <v>325</v>
       </c>
       <c r="AS38">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:45">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -5846,10 +5898,10 @@
         <v>325</v>
       </c>
       <c r="AS39">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:45">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -5983,10 +6035,10 @@
         <v>324</v>
       </c>
       <c r="AS40">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:45">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -6120,10 +6172,10 @@
         <v>327</v>
       </c>
       <c r="AS41">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:45">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -6257,10 +6309,10 @@
         <v>322</v>
       </c>
       <c r="AS42">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:45">
+    <row r="43" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -6394,10 +6446,10 @@
         <v>322</v>
       </c>
       <c r="AS43">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:45">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -6531,10 +6583,10 @@
         <v>319</v>
       </c>
       <c r="AS44">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:45">
+    <row r="45" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -6668,10 +6720,10 @@
         <v>322</v>
       </c>
       <c r="AS45">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:45">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -6805,10 +6857,10 @@
         <v>318</v>
       </c>
       <c r="AS46">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:45">
+    <row r="47" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -6942,10 +6994,10 @@
         <v>320</v>
       </c>
       <c r="AS47">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:45">
+    <row r="48" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -7079,10 +7131,10 @@
         <v>320</v>
       </c>
       <c r="AS48">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:45">
+    <row r="49" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -7216,10 +7268,10 @@
         <v>311</v>
       </c>
       <c r="AS49">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:45">
+    <row r="50" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -7353,10 +7405,10 @@
         <v>298</v>
       </c>
       <c r="AS50">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:45">
+    <row r="51" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -7490,7 +7542,7 @@
         <v>298</v>
       </c>
       <c r="AS51">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
